--- a/case/api.xlsx
+++ b/case/api.xlsx
@@ -1,105 +1,545 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>url</t>
   </si>
   <si>
-    <t>protocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>method</t>
   </si>
   <si>
     <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.101:9999/api/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>/IHome/GetAPPHomePage</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{
+    "areaId": "0",
+    "version": "6.0.0",
+    "channel": "AppStore",
+    "deviceId": "CB16CE82-0700-4EE5-BBAA-9A3D0C6F98FF",
+    "source": "1",
+    "nativeVersion": "6.0.0",
+    "webId": "1",
+    "systemVersion": "12.4.6",
+    "t": "1599575096588",
+    "lotType": "7",
+    "phoneModel": "iPod7,1",
+    "localcity": "2",
+    "sign": "8180eb24c26ff43827e2a4c2c8d5860b"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "error": "0",
+ "message": "",
+ "data": null,
+ "catId": "Benlai.Api.WebApi-c0a8708a_18616-444326-44046"
+}</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>/IHome/GetHomeCategory</t>
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.101:9999/api/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{
+    "areaId": "0",
+    "version": "6.0.0",
+    "channel": "AppStore",
+    "deviceId": "CB16CE82-0700-4EE5-BBAA-9A3D0C6F98FF",
+    "source": "1",
+    "nativeVersion": "6.0.0",
+    "webId": "1",
+    "systemVersion": "12.4.6",
+    "t": "1599575096588",
+    "limit": "7",
+    "offset": "0",
+    "phoneModel": "iPod7,1",
+    "localcity": "2",
+    "sign": "8180eb24c26ff43827e2a4c2c8d5860b"
+}</t>
   </si>
   <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id": 7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"1001"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{
+ "error": "0",
+ "message": "",
+ "data": {
+  "firstAds": {
+   "sysNo": 297,
+   "img": "https://image2.benlailife.com/AppHomePageImage/25b3fcf1-6134-3d61-b0a2-b22fff4d1ca9.gif",
+   "type": 6,
+   "value": "https://m.benlai.com/zt/200901cgcz.html"
+  },
+  "titles": [{
+   "value": 1,
+   "title": "推荐",
+   "orderNum": 0,
+   "isFixed": 1
+  }, {
+   "value": 2,
+   "title": "水果",
+   "orderNum": 1,
+   "isFixed": 0
+  }, {
+   "value": 8,
+   "title": "蔬菜",
+   "orderNum": 2,
+   "isFixed": 0
+  }, {
+   "value": 3,
+   "title": "肉禽",
+   "orderNum": 3,
+   "isFixed": 0
+  }, {
+   "value": 4,
+   "title": "水产",
+   "orderNum": 4,
+   "isFixed": 0
+  }, {
+   "value": 9,
+   "title": "粮油",
+   "orderNum": 5,
+   "isFixed": 0
+  }, {
+   "value": 5,
+   "title": "熟食",
+   "orderNum": 6,
+   "isFixed": 0
+  }, {
+   "value": 7,
+   "title": "零食",
+   "orderNum": 7,
+   "isFixed": 0
+  }, {
+   "value": 14,
+   "title": "乳品",
+   "orderNum": 8,
+   "isFixed": 0
+  }, {
+   "value": 6,
+   "title": "酒饮",
+   "orderNum": 9,
+   "isFixed": 0
+  }, {
+   "value": 10,
+   "title": "厨具",
+   "orderNum": 10,
+   "isFixed": 0
+  }],
+  "mainData": [{
+   "name": "200701推荐首焦",
+   "backColor": "#000000",
+   "lotType": 1,
+   "modelID": 85927,
+   "isHasSpace": 0,
+   "modelSEDetail": [],
+   "list": [{
+    "startTime": 1599494400,
+    "endTime": 1599580799,
+    "sysNo": 288261,
+    "img": "https://image2.benlailife.com/AppHomePageImage/7e58d6f4860c444fbe36fecf59dc5830_n-n.jpg",
+    "position": 2,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/lb200412.html",
+    "title": "本来生活网|大霸屏200908乐博",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1598976000,
+    "endTime": 1600185599,
+    "sysNo": 290939,
+    "img": "https://image1.benlailife.com/AppHomePageImage/1fe0040511724f06b660e139c835ea85_n-n.jpg",
+    "position": 7,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/200828zhsl.html",
+    "title": "本来生活网|招行阳光城软籽石榴129元3kg",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1599408000,
+    "endTime": 1602518399,
+    "sysNo": 290057,
+    "img": "https://image3.benlailife.com/AppHomePageImage/d18e6111dcb74b2eb209792e690bf2fc_n-n.jpg",
+    "position": 8,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/omzr2009.html",
+    "title": "本来生活|#享味欧洲猪肉# 从农场到餐桌 全场可溯源 美味更安心",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1598630400,
+    "endTime": 1600099199,
+    "sysNo": 295905,
+    "img": "https://image1.benlailife.com/AppHomePageImage/aedff821efdb4fdca645e8bb8bbce545_n-n.jpg",
+    "position": 9,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/0828zhongqiu.html",
+    "title": "本来生活|2020本来月饼诚意力作",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1599494400,
+    "endTime": 1599667199,
+    "sysNo": 289103,
+    "img": "https://image.benlailife.com/AppHomePageImage/c3d2ce807cfb4be8882cd9a44bed2cef_n-n.jpg",
+    "position": 13,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/200519csznhb.html",
+    "title": "本来生活网|天下楚商共助荆品出乡，汇爱成河暖心田！",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1598544000,
+    "endTime": 1600099199,
+    "sysNo": 288269,
+    "img": "https://image3.benlailife.com/AppHomePageImage/648fb3b74bcd42b2b444e73d2e600c79_n-n.jpg",
+    "position": 14,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/20dfgng.html",
+    "title": "本来生活网|内蒙古东方菇娘果礼盒99元/2.5kg",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1593532800,
+    "endTime": 1609430399,
+    "sysNo": 288257,
+    "img": "https://image.benlailife.com/AppHomePageImage/33dddea8df4e472eb8292af4b2a15f1e_n-n.jpeg",
+    "position": 15,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/2020zyfp.html",
+    "title": "本来生活与扶贫同行",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1597680000,
+    "endTime": 1600271999,
+    "sysNo": 288275,
+    "img": "https://image2.benlailife.com/AppHomePageImage/93c7e6fa488b4b79a18e2f66e4c7516e_n-n.jpg",
+    "position": 36,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/0908hgg.html",
+    "title": "本来生活 #韩国馆# 亚洲美食深夜种草",
+    "isNeedLogin": false
+   }, {
+    "startTime": 1593532800,
+    "endTime": 1609430399,
+    "sysNo": 288231,
+    "img": "https://image3.benlailife.com/AppHomePageImage/54bbf11143e64586965412035b42118f_n-n.jpg",
+    "position": 37,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/2020101fzp.html",
+    "title": "本来生活网|防诈骗公告！",
+    "isNeedLogin": false
+   }]
+  }, {
+   "name": "200908大霸屏乳品-乐博",
+   "backColor": "#ffffff",
+   "lotType": 18,
+   "modelID": 90201,
+   "isHasSpace": 0,
+   "modelSEDetail": [],
+   "list": [{
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 296692,
+    "img": "https://image1.benlailife.com/AppHomePageImage/0990daf1ee324aafa808cb5156964cc7_n-n.jpg",
+    "position": 1,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/lb200412.html",
+    "title": "本来生活|大霸屏200908乐博",
+    "isNeedLogin": false
+   }]
+  }, {
+   "name": "200908大霸屏乳品-乐博1",
+   "backColor": "#ffffff",
+   "lotType": 3,
+   "modelID": 90202,
+   "isHasSpace": 0,
+   "modelSEDetail": [],
+   "list": [{
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 296693,
+    "img": "https://image2.benlailife.com/AppHomePageImage/fa49bdb9df3548a38f636a62e093557f_n-n.jpg",
+    "position": 1,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/lb200412.html",
+    "title": "本来生活网|大霸屏200908乐博",
+    "isNeedLogin": false
+   }]
+  }, {
+   "name": "首页2020推荐8个icon【1】",
+   "backColor": "#ffffff",
+   "lotType": 23,
+   "modelID": 75793,
+   "isHasSpace": 0,
+   "modelSEDetail": [],
+   "list": [{
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 256261,
+    "img": "https://image.benlailife.com/Customer/GradeIcon/c2cdb493-a656-426f-8f4a-97d1c22ed51b_n-n.gif",
+    "position": 1,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/shucai618.html",
+    "title": "时令蔬菜 ",
+    "isNeedLogin": true
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 256262,
+    "img": "https://image.benlailife.com/Customer/GradeIcon/1e828b21-3674-4774-9fef-4245f5e6ae58_n-n.jpg",
+    "position": 2,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/0327nynj.html",
+    "title": "当季水果",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 256263,
+    "img": "https://image3.benlailife.com/Customer/GradeIcon/b4fa14f4-a695-4df6-b4b6-41a28666f720_n-n.jpg",
+    "position": 3,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/0410rqcdzf.html",
+    "title": "肉禽蛋品",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 256264,
+    "img": "https://image.benlailife.com/Customer/GradeIcon/7da06ed0-5a32-4e24-a721-92ffa0ecae63_n-n.jpg",
+    "position": 4,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/sccdzf.html",
+    "title": "海鲜水产",
+    "isNeedLogin": false
+   }]
+  }, {
+   "name": "扶贫首页2020推荐8个icon【2】",
+   "backColor": "#ffffff",
+   "lotType": 23,
+   "modelID": 89736,
+   "isHasSpace": 0,
+   "modelSEDetail": [],
+   "list": [{
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295914,
+    "img": "https://image2.benlailife.com/Customer/GradeIcon/e89e685c-56ab-4ae8-9503-d98e6c43b6be_n-n.jpg",
+    "position": 1,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/180117dmkp.html",
+    "title": "粮油调味",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295915,
+    "img": "https://image.benlailife.com/Customer/GradeIcon/4275d9cc-64b8-4b07-a13f-acde068a43ed_n-n.jpg",
+    "position": 2,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/2020717shushi.html",
+    "title": "熟食面点",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295916,
+    "img": "https://image1.benlailife.com/Customer/GradeIcon/49b23a99-6a4b-4544-afa7-47df24502302_n-n.jpeg",
+    "position": 3,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/2020zyfp.html",
+    "title": "消费扶贫",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295917,
+    "img": "https://image1.benlailife.com/Customer/GradeIcon/388410a3-9a74-4f61-9049-92f46a9363da_n-n.jpg",
+    "position": 4,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/benlaipro.html",
+    "title": "本来礼品",
+    "isNeedLogin": false
+   }]
+  }, {
+   "name": "首页2020推荐8个icon【3】",
+   "backColor": "#ffffff",
+   "lotType": 23,
+   "modelID": 89098,
+   "isHasSpace": 0,
+   "modelSEDetail": [],
+   "list": [{
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 294765,
+    "img": "https://image1.benlailife.com/Customer/GradeIcon/85abb6d1-0d56-43da-8a73-1732a3c36ddf_n-n.jpg",
+    "position": 1,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/oldPullNew",
+    "title": "邀请有礼1",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 294766,
+    "img": "https://image3.benlailife.com/Customer/GradeIcon/d15b8658-4fc3-435c-9373-f56f16ca2b57_n-n.jpg",
+    "position": 2,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/oldPullNew",
+    "title": "邀请有礼2",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 294767,
+    "img": "https://image3.benlailife.com/Customer/GradeIcon/59842846-9c55-4557-8e01-72a6939c4298_n-n.jpg",
+    "position": 3,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/1zpjhy190613.html",
+    "title": "宅配1",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 294768,
+    "img": "https://image3.benlailife.com/Customer/GradeIcon/c6880dae-60fb-4ead-8ce4-07e3730e2250_n-n.jpg",
+    "position": 4,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/1zpjhy190613.html",
+    "title": "宅配2",
+    "isNeedLogin": false
+   }]
+  }, {
+   "notificationBarList": ["《本来生活账户注销须知》《本来生活隐私政策》更新提示公告", "浦发联名卡【满100减30】活动内容", "邮储借记卡【满60减30】活动内容"],
+   "name": "首页跑马灯",
+   "backColor": null,
+   "lotType": 24,
+   "modelID": 0,
+   "isHasSpace": 0,
+   "modelSEDetail": []
+  }, {
+   "name": "2009新人专享专题1",
+   "backColor": "#000000",
+   "lotType": 23,
+   "modelID": 89799,
+   "isHasSpace": 0,
+   "modelSEDetail": [],
+   "list": [{
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295993,
+    "img": "https://image1.benlailife.com/Customer/GradeIcon/96003901-7f35-4a09-841f-5ca61b8b8a69_n-n.jpg",
+    "position": 1,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/180808newto.html?_bitrack=285980&amp;c=1&amp;sc=1",
+    "title": "新人专享",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295994,
+    "img": "https://image1.benlailife.com/Customer/GradeIcon/942a31de-df65-448d-a98a-e812827623dc_n-n.jpg",
+    "position": 2,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/180808newto.html?_bitrack=285980&amp;c=1&amp;sc=1",
+    "title": "新人专享",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295995,
+    "img": "https://image3.benlailife.com/Customer/GradeIcon/3a67c152-5f75-47b3-9cad-37890f1389f4_n-n.jpg",
+    "position": 3,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/180808newto.html?_bitrack=285980&amp;c=1&amp;sc=1",
+    "title": "新人专享",
+    "isNeedLogin": false
+   }, {
+    "startTime": -2147483648,
+    "endTime": -2147483648,
+    "sysNo": 295996,
+    "img": "https://image.benlailife.com/Customer/GradeIcon/c74ee81c-2656-4040-acec-3bab3c4ebfc6_n-n.jpg",
+    "position": 4,
+    "itemType": 0,
+    "type": 6,
+    "value": "https://m.benlai.com/zt/180808newto.html?_bitrack=285980&amp;c=1&amp;sc=1",
+    "title": "新人专享",
+    "isNeedLogin": false
+   }]
+  }]
+ },
+ "catId": "Benlai.Api.WebApi-c0a870b9_13340-444326-43810"
+}</t>
   </si>
   <si>
     <t>得到列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id": "123"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id": "101","name":["test1","test2","test3"],"token": "aasss"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -107,19 +547,348 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -129,44 +898,338 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,89 +1512,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="19.5" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="24.25" style="5"/>
-    <col min="4" max="4" width="57.125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="24.25" style="5"/>
-    <col min="7" max="16384" width="24.25" style="4"/>
+    <col min="1" max="1" width="25.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="2"/>
+    <col min="3" max="3" width="57.125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.25" style="2"/>
+    <col min="6" max="16384" width="24.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="3" ht="243" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/case/api.xlsx
+++ b/case/api.xlsx
@@ -34,7 +34,7 @@
     <t>/IHome/GetAPPHomePage</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>post</t>
   </si>
   <si>
     <t>{
@@ -530,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -551,6 +551,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -559,44 +595,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,25 +625,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +648,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -655,33 +656,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,187 +703,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +916,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +932,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,8 +992,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -968,57 +1009,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,133 +1027,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="19.5" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1550,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:5">
+    <row r="2" ht="196" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
